--- a/data/trans_dic/P69$dolorCabeza-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2257957009959027</v>
+        <v>0.2267876438885892</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1598066813338823</v>
+        <v>0.1576902474721776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1725576278630363</v>
+        <v>0.1903895419307186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09712501198878858</v>
+        <v>0.0941730973375627</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1986189868169988</v>
+        <v>0.2207326283821588</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.28130756103006</v>
+        <v>0.2794795062000441</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3104068632918992</v>
+        <v>0.2952984850962481</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2490438240363929</v>
+        <v>0.2489015036557602</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2527459318404047</v>
+        <v>0.2522128197785576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2312166306410512</v>
+        <v>0.2485401577915656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2623106924982994</v>
+        <v>0.2626922504075593</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1920030479235885</v>
+        <v>0.2008570952889847</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4324643336675486</v>
+        <v>0.4521392989586431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3582691554301555</v>
+        <v>0.352495942295242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3869247856091196</v>
+        <v>0.3976019811554853</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3106738785559698</v>
+        <v>0.3100702118098319</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4845467060770333</v>
+        <v>0.4916605499134766</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5351279556506519</v>
+        <v>0.5364973711340076</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5545078258919406</v>
+        <v>0.5417138023150884</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.479717802322319</v>
+        <v>0.4789770144930112</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4243919755739295</v>
+        <v>0.4308683764161654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3956074524688407</v>
+        <v>0.4019668058670354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4233596441842626</v>
+        <v>0.4130810845600417</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3577974296635646</v>
+        <v>0.3585478923608434</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1903496302334016</v>
+        <v>0.1898342906896194</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.167017657726879</v>
+        <v>0.1676474557029686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2000861545063428</v>
+        <v>0.1921379507395362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.173124350703472</v>
+        <v>0.1828891972387264</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.223991488064442</v>
+        <v>0.2332460940966441</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3005347897188845</v>
+        <v>0.3094342374745786</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.314346300972029</v>
+        <v>0.2995790350866149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2789704555581256</v>
+        <v>0.2809197260530851</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2242511984925214</v>
+        <v>0.2260765585323768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2511506222024742</v>
+        <v>0.25413983528905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2663724103260293</v>
+        <v>0.2636997304664799</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2448934814718682</v>
+        <v>0.2375234825106488</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3297265651563647</v>
+        <v>0.3310680405263621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3576002325112749</v>
+        <v>0.3652476616690072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3603870205709646</v>
+        <v>0.3640825547010837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3556759618859721</v>
+        <v>0.355525532488545</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.468873056083261</v>
+        <v>0.4638605648944127</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5895757729092388</v>
+        <v>0.5739695551143629</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5698859120949989</v>
+        <v>0.5606833671093937</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.453832684119001</v>
+        <v>0.4508190332999595</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3447855559069559</v>
+        <v>0.343702932286658</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4121396393622779</v>
+        <v>0.4091786918548467</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4146644594239265</v>
+        <v>0.4089286940889507</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3752123243566199</v>
+        <v>0.3718279729962966</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3382844568164058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3020522074423193</v>
+        <v>0.3020522074423195</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5038020082469464</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2168515321518666</v>
+        <v>0.2206447093814848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2105976095775987</v>
+        <v>0.2160184227717444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2408460889403502</v>
+        <v>0.2464096384759805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1971734009386617</v>
+        <v>0.1948534576849476</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4008872261737438</v>
+        <v>0.393593894366676</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2505769857203428</v>
+        <v>0.2431668722840764</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2854703982643497</v>
+        <v>0.285776379455153</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.191202094956523</v>
+        <v>0.1904585786060167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.300687698714931</v>
+        <v>0.3010710213098789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2531196392933437</v>
+        <v>0.2555487326907712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.278136517542071</v>
+        <v>0.2812984078163742</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2184535812845882</v>
+        <v>0.2220010885371811</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3773979563629318</v>
+        <v>0.3734345456149673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4010895132961831</v>
+        <v>0.4038003371317258</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4520855977296551</v>
+        <v>0.4575358070453038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4251316101132835</v>
+        <v>0.4269079904258914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6089020009548997</v>
+        <v>0.6222465853648317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5441127523127186</v>
+        <v>0.5327431027029792</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5731521123850919</v>
+        <v>0.5621945081024525</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3436893315541635</v>
+        <v>0.3414609184069319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4371461859678026</v>
+        <v>0.4335131574045313</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4072518711068445</v>
+        <v>0.4020571700441643</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4486547081997052</v>
+        <v>0.4537598976269837</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3605411924264707</v>
+        <v>0.3596321872360635</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3687840595035882</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3743341914534789</v>
+        <v>0.374334191453479</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3989092561746877</v>
@@ -1105,7 +1105,7 @@
         <v>0.2624069944951684</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3050360714419819</v>
+        <v>0.3050360714419817</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2731482385320745</v>
+        <v>0.2643082744640778</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1037203551774734</v>
+        <v>0.1027576038812441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08738617190155533</v>
+        <v>0.100012157022384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1586582559335716</v>
+        <v>0.1502442147654557</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2559511217527593</v>
+        <v>0.2603674301419299</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2316857233311013</v>
+        <v>0.232529625468868</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2244059820600919</v>
+        <v>0.2243582387976528</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2826483165135987</v>
+        <v>0.2869794448239866</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.311987172650761</v>
+        <v>0.3000259026344508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1829637096469737</v>
+        <v>0.1878322168083009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1755921118737149</v>
+        <v>0.1810707921040371</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2411043529558113</v>
+        <v>0.2346932587974976</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5197373783070426</v>
+        <v>0.5066837938764103</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3389415278699478</v>
+        <v>0.3305817007782401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3072964911151124</v>
+        <v>0.3228097701132714</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3580035732277035</v>
+        <v>0.3509781821458797</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5914332984910934</v>
+        <v>0.5996142523207973</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5539398208025174</v>
+        <v>0.5692236402401362</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.527154774398315</v>
+        <v>0.5302053125008315</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4715630864170511</v>
+        <v>0.4794842662861377</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5127584136534873</v>
+        <v>0.500127764270422</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3871604220546856</v>
+        <v>0.397215204306132</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3524747459451957</v>
+        <v>0.3548932834828731</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3773971583635841</v>
+        <v>0.3854777961167312</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4141223261300172</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3369201094334314</v>
+        <v>0.3369201094334315</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3343511317790205</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2244977679910148</v>
+        <v>0.2260381599154805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2081052971254379</v>
+        <v>0.2062950144952987</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3332655672460084</v>
+        <v>0.3368859210105258</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2894458850826949</v>
+        <v>0.2948592402287998</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2755722823717457</v>
+        <v>0.2730283998627623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2871620678059703</v>
+        <v>0.2842134548639414</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2601262529341806</v>
+        <v>0.2609173303200047</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3278681021618932</v>
+        <v>0.3279198075074501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3115564091688222</v>
+        <v>0.311528488011582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4770013031266125</v>
+        <v>0.4791340844271839</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3862421112917782</v>
+        <v>0.3820356994392497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3598879310320773</v>
+        <v>0.3602745439631559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3694139133394479</v>
+        <v>0.3670231114091642</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3288685018213178</v>
+        <v>0.3320331008662774</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19054</v>
+        <v>19137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13331</v>
+        <v>13154</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14321</v>
+        <v>15801</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5655</v>
+        <v>5483</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9031</v>
+        <v>10036</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19759</v>
+        <v>19630</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19644</v>
+        <v>18688</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14461</v>
+        <v>14453</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32820</v>
+        <v>32750</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>35528</v>
+        <v>38190</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38370</v>
+        <v>38426</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22328</v>
+        <v>23357</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36494</v>
+        <v>38154</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29886</v>
+        <v>29405</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32112</v>
+        <v>32998</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18088</v>
+        <v>18053</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22031</v>
+        <v>22354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>37587</v>
+        <v>37683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35092</v>
+        <v>34282</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27855</v>
+        <v>27812</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55108</v>
+        <v>55949</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60788</v>
+        <v>61765</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61927</v>
+        <v>60424</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41608</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32831</v>
+        <v>32742</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14519</v>
+        <v>14574</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21994</v>
+        <v>21121</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22004</v>
+        <v>23246</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14669</v>
+        <v>15275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18677</v>
+        <v>19230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18905</v>
+        <v>18017</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29199</v>
+        <v>29403</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>53364</v>
+        <v>53799</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>37441</v>
+        <v>37886</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45301</v>
+        <v>44847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>56758</v>
+        <v>55050</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56871</v>
+        <v>57102</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31087</v>
+        <v>31752</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39616</v>
+        <v>40022</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45207</v>
+        <v>45188</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30706</v>
+        <v>30378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36639</v>
+        <v>35669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34274</v>
+        <v>33721</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47501</v>
+        <v>47185</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82048</v>
+        <v>81790</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>61441</v>
+        <v>60999</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>70521</v>
+        <v>69545</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>86962</v>
+        <v>86178</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31852</v>
+        <v>32409</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22738</v>
+        <v>23323</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21222</v>
+        <v>21712</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19055</v>
+        <v>18831</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31182</v>
+        <v>30615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10734</v>
+        <v>10417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13190</v>
+        <v>13205</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18056</v>
+        <v>17986</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67555</v>
+        <v>67641</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>38172</v>
+        <v>38539</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37359</v>
+        <v>37784</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>41741</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55434</v>
+        <v>54852</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43305</v>
+        <v>43598</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39835</v>
+        <v>40315</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41085</v>
+        <v>41256</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47362</v>
+        <v>48400</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23308</v>
+        <v>22821</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26483</v>
+        <v>25977</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32456</v>
+        <v>32245</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>98213</v>
+        <v>97397</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61416</v>
+        <v>60633</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60263</v>
+        <v>60949</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68890</v>
+        <v>68716</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18502</v>
+        <v>17903</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4878</v>
+        <v>4832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5780</v>
+        <v>6615</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15623</v>
+        <v>14795</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8032</v>
+        <v>8171</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8942</v>
+        <v>8974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10472</v>
+        <v>10470</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23136</v>
+        <v>23491</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30924</v>
+        <v>29738</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15666</v>
+        <v>16083</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19809</v>
+        <v>20427</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>43478</v>
+        <v>42322</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35205</v>
+        <v>34321</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15940</v>
+        <v>15547</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20326</v>
+        <v>21352</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35253</v>
+        <v>34562</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18560</v>
+        <v>18817</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21379</v>
+        <v>21969</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24600</v>
+        <v>24743</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38600</v>
+        <v>39248</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>50824</v>
+        <v>49572</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33149</v>
+        <v>34010</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>39763</v>
+        <v>40036</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>68055</v>
+        <v>69512</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>77940</v>
+        <v>78475</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>79171</v>
+        <v>78482</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71258</v>
+        <v>72032</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>98128</v>
+        <v>99963</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>148578</v>
+        <v>147207</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>161808</v>
+        <v>160147</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>187149</v>
+        <v>187718</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>113828</v>
+        <v>113846</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>118527</v>
+        <v>118516</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101991</v>
+        <v>102447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>130944</v>
+        <v>129518</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>194038</v>
+        <v>194247</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>208155</v>
+        <v>206808</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>236606</v>
+        <v>238883</v>
       </c>
     </row>
     <row r="24">
